--- a/config_2.2/game_activity_config.xlsx
+++ b/config_2.2/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\新表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -291,14 +291,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"act_039_ty_by_hhl","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_039_ty_sjb","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_041_yybjsj","panel_act"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -328,6 +320,14 @@
   </si>
   <si>
     <t>"GameComAct1","act_khfl_043_cjj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_sjb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_by_hhl","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +826,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>60</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -1364,13 +1364,13 @@
         <v>61</v>
       </c>
       <c r="M12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1407,13 +1407,13 @@
         <v>61</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1450,13 +1450,13 @@
         <v>61</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N14" s="23">
         <v>1</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1470,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="23">
@@ -1493,7 +1493,7 @@
         <v>60</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N15" s="23">
         <v>1</v>
@@ -1543,19 +1543,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1563,56 +1581,38 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.2/game_activity_config.xlsx
+++ b/config_2.2/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>title|标题</t>
   </si>
@@ -263,26 +263,10 @@
     <t>lbdh</t>
   </si>
   <si>
-    <t>暖心好礼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢福利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>赢一把就睡觉</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_hhl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>activity_task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -307,10 +291,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>狂欢福利--cjj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>|活动模板</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -328,6 +308,33 @@
   </si>
   <si>
     <t>"act_ty_by_hhl","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +414,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +471,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,9 +517,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,8 +550,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -823,16 +854,16 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="5" customWidth="1"/>
     <col min="4" max="5" width="19.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
@@ -862,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -899,10 +930,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -938,7 +969,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
@@ -982,7 +1013,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="9">
@@ -998,7 +1029,7 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="3">
@@ -1027,7 +1058,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9">
@@ -1072,10 +1103,10 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1116,7 +1147,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9">
@@ -1160,7 +1191,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="9">
@@ -1184,7 +1215,7 @@
       <c r="K8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1201,7 +1232,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9">
@@ -1245,10 +1276,10 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1285,250 +1316,275 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="24">
         <v>10</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21" t="s">
+      <c r="D11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="33">
+        <v>1612224000</v>
+      </c>
+      <c r="J11" s="33">
+        <v>1612799999</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="26">
+        <v>11</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22">
+        <v>2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="33">
+        <v>1612224000</v>
+      </c>
+      <c r="J12" s="33">
+        <v>1612799999</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="22">
+        <v>1</v>
+      </c>
+      <c r="O12" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="I11" s="22">
-        <v>1611619200</v>
-      </c>
-      <c r="J11" s="22">
-        <v>1612195199</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="17">
-        <v>11</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22">
-        <v>1611619200</v>
-      </c>
-      <c r="J12" s="22">
-        <v>1612195199</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>12</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="21"/>
+      <c r="D13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="20"/>
       <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22">
+      <c r="H13" s="20"/>
+      <c r="I13" s="21">
         <v>1611619200</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>1612195199</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="23">
+    </row>
+    <row r="14" spans="1:15" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="28">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="30">
         <v>13</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="28">
+        <v>3</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="33">
+        <v>1612224000</v>
+      </c>
+      <c r="J14" s="33">
+        <v>1612799999</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="23">
+      <c r="M14" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="28">
+        <v>1</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="30">
+        <v>14</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="28">
         <v>3</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G15" s="28">
         <v>0</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27">
-        <v>1611014400</v>
-      </c>
-      <c r="J14" s="27">
-        <v>1611590399</v>
-      </c>
-      <c r="K14" s="26" t="s">
+      <c r="H15" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="33">
+        <v>1612224000</v>
+      </c>
+      <c r="J15" s="33">
+        <v>1612799999</v>
+      </c>
+      <c r="K15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="23">
-        <v>1</v>
-      </c>
-      <c r="O14" s="26" t="s">
+      <c r="L15" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="25">
-        <v>14</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="23">
+      <c r="N15" s="28">
+        <v>1</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30">
+        <v>15</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="28">
         <v>3</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27">
-        <v>1611014400</v>
-      </c>
-      <c r="J15" s="27">
-        <v>1611590399</v>
-      </c>
-      <c r="K15" s="26" t="s">
+      <c r="K16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" s="23">
-        <v>1</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="16"/>
-      <c r="C16" s="9"/>
-      <c r="K16" s="7"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="28">
+        <v>1</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="2:13" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="9"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="9"/>
       <c r="K18" s="7"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="16"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="9"/>
       <c r="K19" s="7"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="9"/>
       <c r="K20" s="7"/>
       <c r="M20" s="12"/>
@@ -1543,16 +1599,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1563,14 +1617,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1582,13 +1638,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1600,13 +1656,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.2/game_activity_config.xlsx
+++ b/config_2.2/game_activity_config.xlsx
@@ -295,14 +295,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"GameComAct1","act_khfl_043","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","act_khfl_043_cjj","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_ty_sjb","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -335,6 +327,14 @@
   </si>
   <si>
     <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","act_khfl_044_cjj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","act_khfl_044","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -854,10 +854,10 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1327,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="22">
@@ -1350,7 +1350,7 @@
         <v>56</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N11" s="22">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="22">
@@ -1393,7 +1393,7 @@
         <v>57</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N12" s="22">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="28">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" s="33">
         <v>1612224000</v>
@@ -1481,7 +1481,7 @@
         <v>57</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="N14" s="28">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="28">
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="33">
         <v>1612224000</v>
@@ -1526,7 +1526,7 @@
         <v>56</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="N15" s="28">
         <v>1</v>
@@ -1544,11 +1544,17 @@
         <v>15</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="28">
         <v>3</v>
       </c>
+      <c r="I16" s="33">
+        <v>1612224000</v>
+      </c>
+      <c r="J16" s="33">
+        <v>1612799999</v>
+      </c>
       <c r="K16" s="31" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>56</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N16" s="28">
         <v>1</v>

--- a/config_2.2/game_activity_config.xlsx
+++ b/config_2.2/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>title|标题</t>
   </si>
@@ -854,10 +854,10 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1463,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>71</v>
@@ -1508,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>70</v>
@@ -1539,7 +1539,9 @@
       <c r="A16" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="30">
         <v>15</v>
       </c>
@@ -1548,6 +1550,9 @@
       </c>
       <c r="F16" s="28">
         <v>3</v>
+      </c>
+      <c r="G16" s="28">
+        <v>1</v>
       </c>
       <c r="I16" s="33">
         <v>1612224000</v>
@@ -1605,7 +1610,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1616,26 +1624,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1643,8 +1635,21 @@
 </settings>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1656,13 +1661,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1674,7 +1679,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.2/game_activity_config.xlsx
+++ b/config_2.2/game_activity_config.xlsx
@@ -471,7 +471,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,9 +514,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,8 +568,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,16 +857,16 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="16" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="5" customWidth="1"/>
     <col min="4" max="5" width="19.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
@@ -904,10 +907,10 @@
       <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -930,10 +933,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -969,7 +972,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9">
@@ -1013,7 +1016,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="9">
@@ -1029,7 +1032,7 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="3">
@@ -1058,7 +1061,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9">
@@ -1103,10 +1106,10 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1147,7 +1150,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9">
@@ -1191,7 +1194,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="9">
@@ -1215,7 +1218,7 @@
       <c r="K8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="17" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1232,7 +1235,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9">
@@ -1276,10 +1279,10 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1316,89 +1319,89 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+    <row r="11" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>10</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24"/>
       <c r="I11" s="33">
         <v>1612224000</v>
       </c>
       <c r="J11" s="33">
         <v>1612799999</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="22">
-        <v>1</v>
-      </c>
-      <c r="O11" s="25" t="s">
+      <c r="N11" s="21">
+        <v>1</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+    <row r="12" spans="1:15" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>11</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22">
+      <c r="E12" s="24"/>
+      <c r="F12" s="21">
         <v>2</v>
       </c>
-      <c r="G12" s="22">
-        <v>1</v>
-      </c>
-      <c r="H12" s="27"/>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26"/>
       <c r="I12" s="33">
         <v>1612224000</v>
       </c>
       <c r="J12" s="33">
         <v>1612799999</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="22">
-        <v>1</v>
-      </c>
-      <c r="O12" s="25" t="s">
+      <c r="N12" s="21">
+        <v>1</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1406,66 +1409,66 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>12</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21">
+      <c r="H13" s="19"/>
+      <c r="I13" s="20">
         <v>1611619200</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>1612195199</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="19" t="s">
         <v>58</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="28">
+    <row r="14" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>13</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="28">
+      <c r="E14" s="30"/>
+      <c r="F14" s="27">
         <v>3</v>
       </c>
-      <c r="G14" s="28">
-        <v>1</v>
-      </c>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="27">
+        <v>1</v>
+      </c>
+      <c r="H14" s="31" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="33">
@@ -1474,43 +1477,43 @@
       <c r="J14" s="33">
         <v>1612799999</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="28">
-        <v>1</v>
-      </c>
-      <c r="O14" s="31" t="s">
+      <c r="N14" s="27">
+        <v>1</v>
+      </c>
+      <c r="O14" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="28">
+    <row r="15" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <v>14</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="28">
+      <c r="E15" s="30"/>
+      <c r="F15" s="27">
         <v>3</v>
       </c>
-      <c r="G15" s="28">
-        <v>1</v>
-      </c>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="27">
+        <v>1</v>
+      </c>
+      <c r="H15" s="31" t="s">
         <v>70</v>
       </c>
       <c r="I15" s="33">
@@ -1519,39 +1522,39 @@
       <c r="J15" s="33">
         <v>1612799999</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="28">
-        <v>1</v>
-      </c>
-      <c r="O15" s="31" t="s">
+      <c r="N15" s="27">
+        <v>1</v>
+      </c>
+      <c r="O15" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="28" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="28">
+    <row r="16" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>15</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>3</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>1</v>
       </c>
       <c r="I16" s="33">
@@ -1560,42 +1563,42 @@
       <c r="J16" s="33">
         <v>1612799999</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="28">
-        <v>1</v>
-      </c>
-      <c r="O16" s="31" t="s">
+      <c r="N16" s="27">
+        <v>1</v>
+      </c>
+      <c r="O16" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:13" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="9"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="19"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="9"/>
       <c r="K18" s="7"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="9"/>
       <c r="K19" s="7"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="9"/>
       <c r="K20" s="7"/>
       <c r="M20" s="12"/>
@@ -1617,14 +1620,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1636,16 +1641,14 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1655,13 +1658,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1673,13 +1676,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.2/game_activity_config.xlsx
+++ b/config_2.2/game_activity_config.xlsx
@@ -330,11 +330,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"GameComAct1","act_khfl_044_cjj","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","act_khfl_044","panel"</t>
+    <t>"act_ty_task","act_khfl_044","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_khfl_044_cjj","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -857,10 +857,10 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1484,7 +1484,7 @@
         <v>57</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N14" s="27">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>56</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N15" s="27">
         <v>1</v>
@@ -1613,10 +1613,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1627,12 +1626,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1640,19 +1651,8 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1664,13 +1664,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.2/game_activity_config.xlsx
+++ b/config_2.2/game_activity_config.xlsx
@@ -857,10 +857,10 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="J27" activeCellId="1" sqref="F14 J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="27">
         <v>1</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="27">
         <v>1</v>
@@ -1613,16 +1613,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1633,14 +1631,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1652,13 +1652,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1670,13 +1670,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
